--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150745.6585864078</v>
+        <v>148858.077070006</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>315.5613770470615</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>17.65675159345361</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>22.4535355216978</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>99.66075074687603</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>182.650127684345</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -953,16 +953,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>117.5832630187305</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>26.18302183304453</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>99.90187484148915</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>133.8265139465291</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>80.34293540178108</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>34.10050473850163</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>144.0731271501069</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.27099904745592</v>
+        <v>82.49782848510094</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1658,7 +1658,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385012</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1768,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.236254627512</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.01852064932115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>143.2172878001797</v>
+        <v>31.41965822001968</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2132,7 +2132,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>76.27978370493976</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>143.2925104849745</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>256.3432811758636</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>164.9817215722493</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>262.1230566647374</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>147.1163355383936</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533805</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.043564470071</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965554</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801211</v>
+        <v>91.23070601801236</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437419</v>
+        <v>90.21779139437443</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348208</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897907</v>
+        <v>10.74910070205615</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571492</v>
+        <v>55.21598883571518</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523572</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550464</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298324</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700205</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952712</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080342</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>73.19337109393965</v>
+        <v>163.381396723538</v>
       </c>
     </row>
     <row r="32">
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463245</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1152.640269254486</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C2" t="n">
-        <v>783.6777523140745</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D2" t="n">
-        <v>783.6777523140745</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>783.6777523140745</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>372.6918475244669</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,13 +4334,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2405.650631901128</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2074.587744557557</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="X2" t="n">
-        <v>1542.779601230298</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="Y2" t="n">
-        <v>1152.640269254486</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="3">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>280.0282177315058</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>280.0282177315058</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>280.0282177315058</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>280.0282177315058</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>280.0282177315058</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>280.0282177315058</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>122.279845164036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>280.0282177315058</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1130.084661047915</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C5" t="n">
-        <v>1130.084661047915</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>1130.084661047915</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>1130.084661047915</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>719.0987562583073</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4562,16 +4562,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990286</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
         <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>1893.689751284806</v>
+        <v>2105.981665882184</v>
       </c>
       <c r="X5" t="n">
-        <v>1520.223993023727</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="Y5" t="n">
-        <v>1130.084661047915</v>
+        <v>1732.515907621104</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,46 +4641,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600563</v>
+        <v>672.2645682590013</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600563</v>
+        <v>672.2645682590013</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>444.956380927603</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>444.956380927603</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1036.358670716696</v>
+        <v>1327.013560149308</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1327.013560149308</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1327.013560149308</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>941.2253075510641</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>530.2394027614566</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>516.3159987000475</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>189.1212787360504</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2384.788433659066</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2131.026648297158</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1799.963760953587</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>1799.963760953587</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X8" t="n">
-        <v>1426.498002692507</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y8" t="n">
-        <v>1036.358670716696</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.1363086691491</v>
+        <v>361.80799380017</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D10" t="n">
         <v>211.6913543878343</v>
@@ -4954,58 +4954,58 @@
         <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>246.1363086691491</v>
+        <v>582.6005729437002</v>
       </c>
       <c r="X10" t="n">
-        <v>246.1363086691491</v>
+        <v>582.6005729437002</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.1363086691491</v>
+        <v>361.80799380017</v>
       </c>
     </row>
     <row r="11">
@@ -5024,28 +5024,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5063,10 +5063,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2103.010087623274</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>588.5027791527949</v>
+        <v>665.5728295347056</v>
       </c>
       <c r="C13" t="n">
-        <v>419.5665962248883</v>
+        <v>496.6366466067988</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241979</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688094</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799387</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471214</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473457</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.210845262963</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>1075.210845262963</v>
       </c>
       <c r="V13" t="n">
-        <v>1098.712528333286</v>
+        <v>1075.210845262963</v>
       </c>
       <c r="W13" t="n">
-        <v>809.295358296325</v>
+        <v>1075.210845262963</v>
       </c>
       <c r="X13" t="n">
-        <v>809.295358296325</v>
+        <v>847.2212943649454</v>
       </c>
       <c r="Y13" t="n">
-        <v>588.5027791527949</v>
+        <v>847.2212943649454</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899127</v>
@@ -5300,28 +5300,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.6350999123426</v>
+        <v>545.4651278373167</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>545.4651278373167</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>395.3484884249809</v>
       </c>
       <c r="E16" t="n">
         <v>247.6350999123426</v>
@@ -5428,10 +5428,10 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141521</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>731.0291971045604</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X16" t="n">
-        <v>503.039646206543</v>
+        <v>727.1135926675564</v>
       </c>
       <c r="Y16" t="n">
-        <v>429.2835647425823</v>
+        <v>727.1135926675564</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5501,10 +5501,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5516,10 +5516,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>528.1058742183022</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C19" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5704,19 +5704,19 @@
         <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>930.5469181920721</v>
+        <v>1043.47381675789</v>
       </c>
       <c r="V19" t="n">
-        <v>930.5469181920721</v>
+        <v>1043.47381675789</v>
       </c>
       <c r="W19" t="n">
-        <v>930.5469181920721</v>
+        <v>1043.47381675789</v>
       </c>
       <c r="X19" t="n">
-        <v>930.5469181920721</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="Y19" t="n">
-        <v>709.754339048542</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5777,25 +5777,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>434.3285960683722</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>174.2673780309321</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>174.2673780309321</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5944,16 +5944,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>1354.17636097712</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>1064.759190940159</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>836.7696400421421</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y22" t="n">
-        <v>615.977060898612</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,25 +6069,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>1196.088769018224</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1503.408902298185</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962218</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581962</v>
+        <v>861.4909633328886</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>692.5547804049817</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>542.4381409926459</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>394.5250474102528</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>1016.198248099061</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>761.5137598931742</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W25" t="n">
-        <v>472.0965898562135</v>
+        <v>1043.139428163128</v>
       </c>
       <c r="X25" t="n">
-        <v>244.1070389581962</v>
+        <v>1043.139428163128</v>
       </c>
       <c r="Y25" t="n">
-        <v>244.1070389581962</v>
+        <v>1043.139428163128</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6203,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,28 +6245,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,13 +6291,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>879.2482765610115</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331046</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207689</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383757</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,46 +6388,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1034.225496165639</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>1034.225496165639</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>744.8083261286783</v>
       </c>
       <c r="X28" t="n">
-        <v>1060.896741391251</v>
+        <v>744.8083261286783</v>
       </c>
       <c r="Y28" t="n">
-        <v>1060.896741391251</v>
+        <v>744.8083261286783</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,34 +6479,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6546,22 +6546,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.51904529056</v>
+        <v>667.0753537276645</v>
       </c>
       <c r="C31" t="n">
-        <v>543.3437276440242</v>
+        <v>553.9000360811281</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440242</v>
+        <v>459.5442619501629</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430018</v>
+        <v>367.3920336491403</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264622</v>
+        <v>276.2629514326005</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>163.8484950337916</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569678</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933495</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.45090536675</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.668872196204</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353691</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021645</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056072</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056072</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1791.966918252995</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1623.942368323871</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1390.5745948188</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1191.650971894283</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818931</v>
+        <v>957.9946671386933</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652466</v>
+        <v>957.9946671386933</v>
       </c>
       <c r="Y31" t="n">
-        <v>656.51904529056</v>
+        <v>792.9629532765338</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,25 +6683,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,40 +6710,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6792,13 +6792,13 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,22 +6926,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6950,37 +6950,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108342</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229683</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506736</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083216</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504523</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210314</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982985</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7108,37 +7108,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045198</v>
+        <v>924.2611010045215</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010326</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7184,7 +7184,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7196,28 +7196,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7324,19 +7324,19 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083205</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649688</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7591,10 +7591,10 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7819,10 +7819,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384657</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8766,25 +8766,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>283.6093329825491</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>230.7151863772038</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>277.6717966208069</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.3444739707564</v>
+        <v>66.11764453311142</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,10 +23656,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0.1977080190571883</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23704,22 +23704,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>145.5661327027736</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>143.0200645983977</v>
+        <v>254.8176941785577</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>69.14126431799149</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24184,7 +24184,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>108.8451328388535</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,19 +24415,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>29.89407122271376</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>121.5412767643417</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24607,13 +24607,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>24.11429573383991</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>78.59331985064355</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896553</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>82.96147103692346</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523599</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.5063987604804</v>
       </c>
       <c r="Y31" t="n">
-        <v>90.1880256295981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-9.993161981257776e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="C2" t="n">
         <v>307890.6636991064</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="E2" t="n">
-        <v>293271.7948032815</v>
+        <v>293271.7948032816</v>
       </c>
       <c r="F2" t="n">
         <v>293271.7948032815</v>
       </c>
       <c r="G2" t="n">
-        <v>293271.7948032815</v>
+        <v>293271.7948032814</v>
       </c>
       <c r="H2" t="n">
-        <v>293271.7948032815</v>
+        <v>293271.7948032816</v>
       </c>
       <c r="I2" t="n">
-        <v>293271.7948032813</v>
+        <v>293271.7948032816</v>
       </c>
       <c r="J2" t="n">
         <v>293271.7948032814</v>
       </c>
       <c r="K2" t="n">
-        <v>305116.6030089525</v>
+        <v>305116.6030089523</v>
       </c>
       <c r="L2" t="n">
         <v>307890.6636991063</v>
@@ -26347,10 +26347,10 @@
         <v>307890.6636991063</v>
       </c>
       <c r="N2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="O2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="P2" t="n">
         <v>307890.6636991063</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284565</v>
+        <v>44162.60530284529</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086686</v>
+        <v>10342.90680086708</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284544</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
+        <v>15045.66962143913</v>
+      </c>
+      <c r="F4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15045.66962143913</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563564</v>
+        <v>33210.29213563555</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275955</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
+        <v>37464.45686275956</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37464.45686275954</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275957</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37464.45686275957</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275957</v>
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340947</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26488,28 +26488,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022276</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-521711.2518300702</v>
+        <v>-521711.2518300704</v>
       </c>
       <c r="C6" t="n">
-        <v>68256.62738447431</v>
+        <v>68256.62738447436</v>
       </c>
       <c r="D6" t="n">
-        <v>68256.62738447433</v>
+        <v>68256.62738447417</v>
       </c>
       <c r="E6" t="n">
-        <v>-338921.2372437703</v>
+        <v>-339018.6963697425</v>
       </c>
       <c r="F6" t="n">
-        <v>186238.7992331257</v>
+        <v>186141.3401071537</v>
       </c>
       <c r="G6" t="n">
-        <v>186238.7992331257</v>
+        <v>186141.3401071535</v>
       </c>
       <c r="H6" t="n">
-        <v>186238.7992331258</v>
+        <v>186141.3401071537</v>
       </c>
       <c r="I6" t="n">
-        <v>186238.7992331255</v>
+        <v>186141.3401071537</v>
       </c>
       <c r="J6" t="n">
-        <v>9815.580040532761</v>
+        <v>9718.120914560539</v>
       </c>
       <c r="K6" t="n">
-        <v>131115.4970402484</v>
+        <v>131097.0033023143</v>
       </c>
       <c r="L6" t="n">
-        <v>162368.1942154545</v>
+        <v>162368.1942154542</v>
       </c>
       <c r="M6" t="n">
-        <v>37910.0857824842</v>
+        <v>37910.08578248412</v>
       </c>
       <c r="N6" t="n">
         <v>172711.1010163214</v>
       </c>
       <c r="O6" t="n">
-        <v>172711.1010163214</v>
+        <v>172711.1010163215</v>
       </c>
       <c r="P6" t="n">
-        <v>128548.4957134757</v>
+        <v>128548.4957134759</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964064</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26756,28 +26756,28 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108357</v>
+        <v>12.92863350108385</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285568</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>98.22279297373353</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>233.5674159148357</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>112.5120862706404</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>112.4847882031429</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>231.13404233645</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>231.6577056986825</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>120.4821701471133</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>125.1332306165951</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>18.10480229833217</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>136.1053849558767</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>133.1463163601262</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>142.4498711864841</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.19557705349871e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>594.0337100330154</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>437.8086013087286</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556773</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35884,7 +35884,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>526.9295015768312</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>598.833559628141</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412233</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584673</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084853</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075293</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341604</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491596</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403576</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.42895660043156</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37160,16 +37160,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>560.0354988619143</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
